--- a/data/HouseApportion.xlsx
+++ b/data/HouseApportion.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LK296/Documents/Research/Electoral College Distortion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LK296/Documents/Research/Electoral College Distortion/EC-Analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45F0EDB-AD91-D242-A8FC-403FD86F8F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AE97B0-CF49-AF45-91B0-440392108272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" xr2:uid="{F3862A4C-2B2E-8747-A0F5-1103E047C4F6}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17240" xr2:uid="{F3862A4C-2B2E-8747-A0F5-1103E047C4F6}"/>
   </bookViews>
   <sheets>
     <sheet name="House" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="54">
   <si>
     <t>State</t>
   </si>
@@ -192,7 +192,10 @@
     <t>WY</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>PR</t>
   </si>
 </sst>
 </file>
@@ -561,21 +564,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC01BA9D-594B-3F4B-AA5E-F7396178F8CB}">
-  <dimension ref="A1:X52"/>
+  <dimension ref="A1:Y53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomRight" activeCell="B52" sqref="B52:Y53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="24" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="25" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,8 +651,11 @@
       <c r="X1" s="1">
         <v>2012</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y1" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -722,8 +728,11 @@
       <c r="X2" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -796,8 +805,11 @@
       <c r="X3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -870,8 +882,11 @@
       <c r="X4" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -944,8 +959,11 @@
       <c r="X5" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1036,11 @@
       <c r="X6" s="2">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1113,11 @@
       <c r="X7" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1166,8 +1190,11 @@
       <c r="X8" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1240,8 +1267,11 @@
       <c r="X9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1314,8 +1344,11 @@
       <c r="X10" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1388,8 +1421,11 @@
       <c r="X11" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -1462,8 +1498,11 @@
       <c r="X12" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1536,8 +1575,11 @@
       <c r="X13" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1610,8 +1652,11 @@
       <c r="X14" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -1684,8 +1729,11 @@
       <c r="X15" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1758,8 +1806,11 @@
       <c r="X16" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -1832,8 +1883,11 @@
       <c r="X17" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -1906,8 +1960,11 @@
       <c r="X18" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -1980,8 +2037,11 @@
       <c r="X19" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -2054,8 +2114,11 @@
       <c r="X20" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -2128,8 +2191,11 @@
       <c r="X21" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -2202,8 +2268,11 @@
       <c r="X22" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -2276,8 +2345,11 @@
       <c r="X23" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -2350,8 +2422,11 @@
       <c r="X24" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -2424,8 +2499,11 @@
       <c r="X25" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -2498,8 +2576,11 @@
       <c r="X26" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -2572,8 +2653,11 @@
       <c r="X27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -2646,8 +2730,11 @@
       <c r="X28" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -2720,8 +2807,11 @@
       <c r="X29" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -2794,8 +2884,11 @@
       <c r="X30" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -2868,8 +2961,11 @@
       <c r="X31" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -2942,8 +3038,11 @@
       <c r="X32" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -3016,8 +3115,11 @@
       <c r="X33" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y33">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -3090,8 +3192,11 @@
       <c r="X34" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -3164,8 +3269,11 @@
       <c r="X35" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -3238,8 +3346,11 @@
       <c r="X36" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
@@ -3312,8 +3423,11 @@
       <c r="X37" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -3386,8 +3500,11 @@
       <c r="X38" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
@@ -3460,8 +3577,11 @@
       <c r="X39" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y39">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
@@ -3534,8 +3654,11 @@
       <c r="X40" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
@@ -3608,8 +3731,11 @@
       <c r="X41" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
@@ -3682,8 +3808,11 @@
       <c r="X42" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
@@ -3756,8 +3885,11 @@
       <c r="X43" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
@@ -3830,8 +3962,11 @@
       <c r="X44" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y44">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
@@ -3904,8 +4039,11 @@
       <c r="X45" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
@@ -3978,8 +4116,11 @@
       <c r="X46" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
@@ -4052,8 +4193,11 @@
       <c r="X47" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
@@ -4126,8 +4270,11 @@
       <c r="X48" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>49</v>
       </c>
@@ -4200,8 +4347,11 @@
       <c r="X49" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
@@ -4274,8 +4424,11 @@
       <c r="X50" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>51</v>
       </c>
@@ -4348,108 +4501,165 @@
       <c r="X51" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="Y51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B52">
-        <f>SUM(B2:B51)</f>
-        <v>65</v>
-      </c>
-      <c r="C52">
-        <f t="shared" ref="C52:X52" si="0">SUM(C2:C51)</f>
-        <v>105</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="0"/>
-        <v>141</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="0"/>
-        <v>181</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="0"/>
-        <v>213</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="0"/>
-        <v>223</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="0"/>
-        <v>234</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="0"/>
-        <v>241</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="0"/>
-        <v>292</v>
-      </c>
-      <c r="L52">
-        <f t="shared" si="0"/>
-        <v>325</v>
-      </c>
-      <c r="M52">
-        <f t="shared" si="0"/>
-        <v>356</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="0"/>
-        <v>386</v>
-      </c>
-      <c r="O52">
-        <f t="shared" si="0"/>
-        <v>435</v>
-      </c>
-      <c r="P52">
-        <f t="shared" si="0"/>
-        <v>435</v>
-      </c>
-      <c r="Q52">
-        <f t="shared" si="0"/>
-        <v>435</v>
-      </c>
-      <c r="R52">
-        <f t="shared" si="0"/>
-        <v>435</v>
-      </c>
-      <c r="S52">
-        <f t="shared" si="0"/>
-        <v>435</v>
-      </c>
-      <c r="T52">
-        <f t="shared" si="0"/>
-        <v>435</v>
-      </c>
-      <c r="U52">
-        <f t="shared" si="0"/>
-        <v>435</v>
-      </c>
-      <c r="V52">
-        <f t="shared" si="0"/>
-        <v>435</v>
-      </c>
-      <c r="W52">
-        <f t="shared" si="0"/>
-        <v>435</v>
-      </c>
-      <c r="X52">
-        <f t="shared" si="0"/>
-        <v>435</v>
+      <c r="B52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y52" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y53" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="X52" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>